--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -540,10 +540,10 @@
         <v>5.005563</v>
       </c>
       <c r="I2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>67.92159836285434</v>
+        <v>49.26503747543834</v>
       </c>
       <c r="R2">
-        <v>611.294385265689</v>
+        <v>443.3853372789451</v>
       </c>
       <c r="S2">
-        <v>0.3654430655735648</v>
+        <v>0.2968337502014814</v>
       </c>
       <c r="T2">
-        <v>0.3654430655735647</v>
+        <v>0.2968337502014814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.005563</v>
       </c>
       <c r="I3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
         <v>66.265349890983</v>
@@ -632,10 +632,10 @@
         <v>596.3881490188471</v>
       </c>
       <c r="S3">
-        <v>0.3565318424354001</v>
+        <v>0.3992647387381044</v>
       </c>
       <c r="T3">
-        <v>0.3565318424354001</v>
+        <v>0.3992647387381044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.005563</v>
       </c>
       <c r="I4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>45.67116170642934</v>
+        <v>37.54308123226767</v>
       </c>
       <c r="R4">
-        <v>411.040455357864</v>
+        <v>337.887731090409</v>
       </c>
       <c r="S4">
-        <v>0.2457275703840216</v>
+        <v>0.2262061325305774</v>
       </c>
       <c r="T4">
-        <v>0.2457275703840216</v>
+        <v>0.2262061325305773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H5">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N5">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q5">
-        <v>2.266915027798778</v>
+        <v>4.150110110951667</v>
       </c>
       <c r="R5">
-        <v>20.402235250189</v>
+        <v>37.350990998565</v>
       </c>
       <c r="S5">
-        <v>0.012196832776636</v>
+        <v>0.02500541583058866</v>
       </c>
       <c r="T5">
-        <v>0.012196832776636</v>
+        <v>0.02500541583058866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H6">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>119.145069</v>
       </c>
       <c r="O6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q6">
-        <v>2.211636962483</v>
+        <v>5.582224487811001</v>
       </c>
       <c r="R6">
-        <v>19.904732662347</v>
+        <v>50.240020390299</v>
       </c>
       <c r="S6">
-        <v>0.01189941654770607</v>
+        <v>0.03363425086217778</v>
       </c>
       <c r="T6">
-        <v>0.01189941654770607</v>
+        <v>0.03363425086217778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H7">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N7">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q7">
-        <v>1.524296325540444</v>
+        <v>3.162646960250334</v>
       </c>
       <c r="R7">
-        <v>13.718666929864</v>
+        <v>28.463822642253</v>
       </c>
       <c r="S7">
-        <v>0.00820127228267146</v>
+        <v>0.01905571183707029</v>
       </c>
       <c r="T7">
-        <v>0.00820127228267146</v>
+        <v>0.01905571183707029</v>
       </c>
     </row>
   </sheetData>
